--- a/QtDesigner/demo2_openfile/utils/7月未申报0716_sws.xlsx
+++ b/QtDesigner/demo2_openfile/utils/7月未申报0716_sws.xlsx
@@ -1131,6 +1131,13 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1195,13 +1202,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1256,13 +1256,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1277,6 +1270,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1287,7 +1287,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,7 +1317,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,7 +1335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,7 +1359,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,7 +1389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,19 +1407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,13 +1425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,19 +1437,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,49 +1467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1599,10 +1599,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1611,16 +1611,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1629,115 +1629,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8567,11 +8567,13 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="5" max="7" width="12.625"/>
   </cols>
   <sheetData>
